--- a/Schedule_UNC_Fall_2018.xlsx
+++ b/Schedule_UNC_Fall_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule_UNC_Fall_2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="217">
   <si>
     <t xml:space="preserve">Lesson</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Lesson1</t>
   </si>
   <si>
-    <t xml:space="preserve">What is PHP?</t>
+    <t xml:space="preserve">PHP Server</t>
   </si>
   <si>
     <t xml:space="preserve">Digital Ocean</t>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Setup PHP Server</t>
   </si>
   <si>
-    <t xml:space="preserve">PHP &amp; MySQL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Web dev</t>
   </si>
   <si>
@@ -74,13 +71,13 @@
     <t xml:space="preserve">Lesson2</t>
   </si>
   <si>
-    <t xml:space="preserve">Version Control</t>
+    <t xml:space="preserve">Extended HTML</t>
   </si>
   <si>
     <t xml:space="preserve">Github Account</t>
   </si>
   <si>
-    <t xml:space="preserve">Build Git Repo</t>
+    <t xml:space="preserve">Student Profile Page</t>
   </si>
   <si>
     <t xml:space="preserve">--</t>
@@ -95,13 +92,13 @@
     <t xml:space="preserve">Lesson3</t>
   </si>
   <si>
-    <t xml:space="preserve">SSH</t>
+    <t xml:space="preserve">Architecture</t>
   </si>
   <si>
     <t xml:space="preserve">Configure SSH</t>
   </si>
   <si>
-    <t xml:space="preserve">SSH Console</t>
+    <t xml:space="preserve">Student Exercises</t>
   </si>
   <si>
     <t xml:space="preserve">PHP App</t>
@@ -113,17 +110,16 @@
     <t xml:space="preserve">Lesson4</t>
   </si>
   <si>
-    <t xml:space="preserve">Program Logic</t>
+    <t xml:space="preserve">CSS/HTML</t>
   </si>
   <si>
     <t xml:space="preserve">Shell Commands</t>
   </si>
   <si>
-    <t xml:space="preserve">To Do List  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Files on Server</t>
+    <t xml:space="preserve">Exercises Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styled Page with Files</t>
   </si>
   <si>
     <t xml:space="preserve">08-29</t>
@@ -132,13 +128,16 @@
     <t xml:space="preserve">Lesson5</t>
   </si>
   <si>
-    <t xml:space="preserve">Listing files</t>
+    <t xml:space="preserve">Render View</t>
   </si>
   <si>
     <t xml:space="preserve">Display Table</t>
   </si>
   <si>
-    <t xml:space="preserve">List Files with PHP</t>
+    <t xml:space="preserve">Link to Exercises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test and Debug</t>
   </si>
   <si>
     <t xml:space="preserve">08-31</t>
@@ -147,250 +146,238 @@
     <t xml:space="preserve">Lesson6</t>
   </si>
   <si>
-    <t xml:space="preserve">Reading files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Files</t>
+    <t xml:space="preserve">File Includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev Loop Workflow</t>
   </si>
   <si>
     <t xml:space="preserve">Display Files</t>
   </si>
   <si>
+    <t xml:space="preserve">09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Pages with Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read/Write Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strings and numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Browser App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new To Do items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Log Markdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML for Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post/Get Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List/Details View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do Viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add/Edit View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP + MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS Controls</t>
+  </si>
+  <si>
     <t xml:space="preserve">MySQL database</t>
   </si>
   <si>
-    <t xml:space="preserve">09-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Driven Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Do Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP + MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated Deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Do List Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add to do List Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC Pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test and Debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifications  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Do List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control statements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strings and numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Views</t>
-  </si>
-  <si>
     <t xml:space="preserve">10-08</t>
   </si>
   <si>
     <t xml:space="preserve">Lesson20</t>
   </si>
   <si>
-    <t xml:space="preserve">View Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slides  -</t>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual DB Manipulation</t>
   </si>
   <si>
     <t xml:space="preserve">Cookies &amp; Sessions</t>
@@ -402,7 +389,10 @@
     <t xml:space="preserve">Lesson21</t>
   </si>
   <si>
-    <t xml:space="preserve">User Authentication</t>
+    <t xml:space="preserve">Database Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB Connect</t>
   </si>
   <si>
     <t xml:space="preserve">10-12</t>
@@ -411,13 +401,10 @@
     <t xml:space="preserve">Lesson22</t>
   </si>
   <si>
-    <t xml:space="preserve">Online Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions</t>
+    <t xml:space="preserve">Database Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views (list, read)</t>
   </si>
   <si>
     <t xml:space="preserve">10-15</t>
@@ -426,11 +413,13 @@
     <t xml:space="preserve">Lesson23</t>
   </si>
   <si>
-    <t xml:space="preserve">Pandoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Markdown  -</t>
+    <t xml:space="preserve">CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views (add, edit, delete)</t>
   </si>
   <si>
     <t xml:space="preserve">10-17</t>
@@ -439,10 +428,13 @@
     <t xml:space="preserve">Lesson24</t>
   </si>
   <si>
-    <t xml:space="preserve">Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects</t>
+    <t xml:space="preserve">Data Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Favorites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Views</t>
   </si>
   <si>
     <t xml:space="preserve">10-19</t>
@@ -451,7 +443,10 @@
     <t xml:space="preserve">Lesson25</t>
   </si>
   <si>
-    <t xml:space="preserve">Import</t>
+    <t xml:space="preserve">Data Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artist / Album / Track</t>
   </si>
   <si>
     <t xml:space="preserve">10-22</t>
@@ -460,100 +455,102 @@
     <t xml:space="preserve">Lesson26</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Models</t>
+    <t xml:space="preserve">Joining Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reusable Patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki App</t>
   </si>
   <si>
     <t xml:space="preserve">User Registration   </t>
   </si>
   <si>
-    <t xml:space="preserve">Expressions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Coverage</t>
+    <t xml:space="preserve">Database design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login/Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson32</t>
   </si>
   <si>
     <t xml:space="preserve">Wiki  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time &amp; Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reminders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eBook Formatter  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesson32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kindle Book Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD</t>
+App</t>
   </si>
   <si>
     <t xml:space="preserve">11-09</t>
@@ -562,7 +559,11 @@
     <t xml:space="preserve">Lesson33</t>
   </si>
   <si>
-    <t xml:space="preserve">File Upload</t>
+    <t xml:space="preserve">Social Network App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter  +App</t>
   </si>
   <si>
     <t xml:space="preserve">11-12</t>
@@ -571,11 +572,13 @@
     <t xml:space="preserve">Lesson34</t>
   </si>
   <si>
-    <t xml:space="preserve">Image Upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twitter  -</t>
+    <t xml:space="preserve">Photo App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos</t>
   </si>
   <si>
     <t xml:space="preserve">Website with data</t>
@@ -587,7 +590,7 @@
     <t xml:space="preserve">Lesson35</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature Master</t>
+    <t xml:space="preserve">Export</t>
   </si>
   <si>
     <t xml:space="preserve">11-16</t>
@@ -596,10 +599,7 @@
     <t xml:space="preserve">Lesson36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Websites</t>
+    <t xml:space="preserve">Import</t>
   </si>
   <si>
     <t xml:space="preserve">Security</t>
@@ -611,7 +611,10 @@
     <t xml:space="preserve">Lesson37</t>
   </si>
   <si>
-    <t xml:space="preserve">Report Master</t>
+    <t xml:space="preserve">Version Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Commit</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
@@ -632,7 +635,7 @@
     <t xml:space="preserve">Lesson38</t>
   </si>
   <si>
-    <t xml:space="preserve">CSV Content</t>
+    <t xml:space="preserve">Client/Server </t>
   </si>
   <si>
     <t xml:space="preserve">User Comments  @@ -651,7 +654,10 @@
     <t xml:space="preserve">Lesson39</t>
   </si>
   <si>
-    <t xml:space="preserve">Distributed Computing</t>
+    <t xml:space="preserve">REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservices</t>
   </si>
   <si>
     <t xml:space="preserve">11-30</t>
@@ -660,7 +666,7 @@
     <t xml:space="preserve">Lesson40</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Services</t>
+    <t xml:space="preserve">Wrapup</t>
   </si>
   <si>
     <t xml:space="preserve">eCommerce site</t>
@@ -684,6 +690,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -789,15 +796,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,25 +885,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.97448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.05612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.9234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.00510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.9948979591837"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.1581632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.9183673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.8775510204082"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.5969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.719387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,14 +927,14 @@
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="AMJ3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -958,65 +964,54 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="0"/>
-      <c r="M4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="0"/>
-      <c r="M5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="0"/>
-      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1026,60 +1021,55 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="0"/>
-      <c r="M7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="0"/>
-      <c r="M8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
@@ -1093,15 +1083,12 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="0"/>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="0"/>
-      <c r="M9" s="0"/>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -1111,77 +1098,69 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="0"/>
-      <c r="M10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="0"/>
-      <c r="M11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="0"/>
-      <c r="M12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>4</v>
       </c>
@@ -1200,49 +1179,41 @@
       <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="0"/>
-      <c r="M13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="0"/>
-      <c r="M14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>71</v>
@@ -1253,20 +1224,14 @@
       <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="0"/>
       <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="0"/>
-      <c r="M15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>5</v>
       </c>
@@ -1282,23 +1247,17 @@
       <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="0"/>
-      <c r="M16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>81</v>
@@ -1309,41 +1268,29 @@
       <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="0"/>
       <c r="H17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="0"/>
-      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="0"/>
-      <c r="M18" s="0"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -1353,73 +1300,59 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="0"/>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="0"/>
-      <c r="M20" s="0"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="0"/>
-      <c r="H21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="0"/>
-      <c r="M21" s="0"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1429,75 +1362,55 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="0"/>
-      <c r="M22" s="0"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="0"/>
-      <c r="H23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="0"/>
-      <c r="M23" s="0"/>
+        <v>106</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="0"/>
-      <c r="M24" s="0"/>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>8</v>
       </c>
@@ -1505,73 +1418,65 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="0"/>
-      <c r="M25" s="0"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="0"/>
-      <c r="H26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="0"/>
-      <c r="M26" s="0"/>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="0"/>
-      <c r="H27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="0"/>
-      <c r="M27" s="0"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1581,73 +1486,65 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="0"/>
-      <c r="M28" s="0"/>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="0"/>
       <c r="H29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" s="0"/>
-      <c r="M29" s="0"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="0"/>
       <c r="H30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="0"/>
-      <c r="M30" s="0"/>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -1662,25 +1559,20 @@
       <c r="D31" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="0"/>
-      <c r="M31" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>147</v>
@@ -1688,40 +1580,34 @@
       <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="0"/>
       <c r="H32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K32" s="0"/>
-      <c r="M32" s="0"/>
+      <c r="I32" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
         <v>152</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="0"/>
-      <c r="M33" s="0"/>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>11</v>
       </c>
@@ -1729,78 +1615,71 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K34" s="0"/>
-      <c r="M34" s="0"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="0"/>
+        <v>162</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="0"/>
-      <c r="J35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="0"/>
-      <c r="M35" s="0"/>
+        <v>164</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="0"/>
+        <v>166</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="0"/>
-      <c r="J36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" s="0"/>
-      <c r="M36" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -1810,76 +1689,65 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I37" s="0"/>
-      <c r="J37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="0"/>
-      <c r="M37" s="0"/>
+        <v>117</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="0"/>
-      <c r="H38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I38" s="0"/>
-      <c r="J38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K38" s="0"/>
-      <c r="M38" s="0"/>
+      <c r="E38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="0"/>
-      <c r="H39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="0"/>
-      <c r="M39" s="0"/>
+      <c r="E39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -1889,78 +1757,68 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K40" s="0"/>
-      <c r="M40" s="0"/>
+        <v>184</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" s="0"/>
+        <v>187</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="0"/>
-      <c r="M41" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="0"/>
+        <v>190</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="0"/>
-      <c r="M42" s="0"/>
+        <v>192</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -1970,62 +1828,54 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43" s="0"/>
+        <v>194</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K43" s="0"/>
-      <c r="M43" s="0"/>
+        <v>196</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="0"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -2035,72 +1885,62 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K46" s="0"/>
+        <v>205</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G47" s="0"/>
+        <v>208</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="H47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" s="0"/>
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="0"/>
+        <v>210</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I48" s="0"/>
-      <c r="J48" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -2108,23 +1948,20 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
